--- a/entrys and stops.xlsx
+++ b/entrys and stops.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alonso\Documents\Trading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alonso\Documents\GitHub\Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929B38AC-4185-44CB-9AE1-6D6DC0F454B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1CF7DB-2631-47D7-84D6-30ED736DF249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{700066B9-5A74-44E1-ACE9-D49B5F1E5EBB}"/>
   </bookViews>

--- a/entrys and stops.xlsx
+++ b/entrys and stops.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alonso\Documents\GitHub\Trading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alonso\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1CF7DB-2631-47D7-84D6-30ED736DF249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E5E191-DA7D-4BA8-8215-F8808C83D7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{700066B9-5A74-44E1-ACE9-D49B5F1E5EBB}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="248">
   <si>
     <t>Price</t>
   </si>
@@ -529,14 +529,282 @@
     <t>IGV</t>
   </si>
   <si>
-    <t>amzn</t>
+    <t>12 days</t>
+  </si>
+  <si>
+    <t>Stopped out. Fake Recovery</t>
+  </si>
+  <si>
+    <t>11 days</t>
+  </si>
+  <si>
+    <t>The stock is showing weakness. MACD is starting to reverse. Secure profit</t>
+  </si>
+  <si>
+    <t>Stopped out. The stock entered a correction zone and fell</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>Stopped out. Bad performance</t>
+  </si>
+  <si>
+    <t>Stopped out. Small position</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>Trimmed position regarding incoming FED announcement</t>
+  </si>
+  <si>
+    <t>Cooling down, not a good time for keeping</t>
+  </si>
+  <si>
+    <t>Sold before earnings announcement for reducing risk and secure profit</t>
+  </si>
+  <si>
+    <t>Flat movement, entry didn't work</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>It shows weakness</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>strong negative movement. Unemployment rate announced</t>
+  </si>
+  <si>
+    <t>Stopped out. Stop Trail. Unemployment rate announced</t>
+  </si>
+  <si>
+    <t>The market is choppy and is not showing clear trends. It is killing my account</t>
+  </si>
+  <si>
+    <t>17 days</t>
+  </si>
+  <si>
+    <t>Big loss, the market is choppy and completely unstable</t>
+  </si>
+  <si>
+    <t>22 days</t>
+  </si>
+  <si>
+    <t>Closing positions for securing capital</t>
+  </si>
+  <si>
+    <t>Stopped out in choppy market</t>
+  </si>
+  <si>
+    <t>13 days</t>
+  </si>
+  <si>
+    <t>Bad limit on close order</t>
+  </si>
+  <si>
+    <t>Bad entry</t>
+  </si>
+  <si>
+    <t>JCI</t>
+  </si>
+  <si>
+    <t>ELAN</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>ATEC</t>
+  </si>
+  <si>
+    <t>SUPV</t>
+  </si>
+  <si>
+    <t>The stock is moving laterally</t>
+  </si>
+  <si>
+    <t>Stopped out. Bad performance of the tech companies in general during lasts weeks</t>
+  </si>
+  <si>
+    <t>AMPX</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>Low volume and aggressive sell hit the stop loss quickly</t>
+  </si>
+  <si>
+    <t>Big overnight gap, bad, took all my profit away</t>
+  </si>
+  <si>
+    <t>TIMB</t>
+  </si>
+  <si>
+    <t>Failed brake out. It got rejected, sold before losing money</t>
+  </si>
+  <si>
+    <t>ABAT</t>
+  </si>
+  <si>
+    <t>Trimmed position it has stagnated and has under performed 2 days in a row</t>
+  </si>
+  <si>
+    <t>Perfect entry, MACD, two pole and SMA matched perfectly. Trimmed to wait for more profit, stop trailed to 6%</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>Finally stopped out</t>
+  </si>
+  <si>
+    <t>Sudden negative movement it took me without stop</t>
+  </si>
+  <si>
+    <t>AHR</t>
+  </si>
+  <si>
+    <t>Big resistance in 55 levels, it got rejected. Didn't wait for confirmation. Bad entry</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>30 days</t>
+  </si>
+  <si>
+    <t>Great movement. Trimmed position. There is still potential for growth.</t>
+  </si>
+  <si>
+    <t>Perfect entry using MACD, there is still a lot of potential growth, trimed 1/4 of the position.</t>
+  </si>
+  <si>
+    <t>Perfect timing and entry, there is still a lot of potential growth. Sold 1/6 of the position to release some resources.</t>
+  </si>
+  <si>
+    <t>PZG</t>
+  </si>
+  <si>
+    <t>False breakout. It was rejected. Bad entry</t>
+  </si>
+  <si>
+    <t>Stop trailed, but too tight it took me out early</t>
+  </si>
+  <si>
+    <t>Good trade, partial profit lock 25% sold</t>
+  </si>
+  <si>
+    <t>Trimmed for secureing earnings, big movement today of 13%.</t>
+  </si>
+  <si>
+    <t>Sold for releasing funds, it is moving too slowly and showing resistance in 25 levels.</t>
+  </si>
+  <si>
+    <t>Bad entry, didn't consider MACD and it immediately went down</t>
+  </si>
+  <si>
+    <t>Stopped out after trailing. Really good earnings with this stock. Perfect execution.</t>
+  </si>
+  <si>
+    <t>FROG</t>
+  </si>
+  <si>
+    <t>Trimmed for secureing earnings 21%, gold is getting strong</t>
+  </si>
+  <si>
+    <t>15 days</t>
+  </si>
+  <si>
+    <t>Reduced position to release funds, and make position smaller, big news regarding health made a bug pulback</t>
+  </si>
+  <si>
+    <t>Stopped out, with earnings, seems there is big profit taking in gold</t>
+  </si>
+  <si>
+    <t>The reading of the stock never took off as expected</t>
+  </si>
+  <si>
+    <t>Exit completely for releasing fund, the defensive stock is not working as it should.</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>16 days</t>
+  </si>
+  <si>
+    <t>This has become one of the best executions that I have done ever, entered in the right structure</t>
+  </si>
+  <si>
+    <t>Bad entry, the stock prove wrong the thesis. Keep it as a potential entry soon.</t>
+  </si>
+  <si>
+    <t>Minimal earnings. Stoped out, XLP is not working as a right defensive name, looking for new entry</t>
+  </si>
+  <si>
+    <t>Stopped out sudden negative movement.</t>
+  </si>
+  <si>
+    <t>CRWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stopped out. Really bad entry </t>
+  </si>
+  <si>
+    <t>Stopped out. Wrong thesis</t>
+  </si>
+  <si>
+    <t>Stopped out. Bad day</t>
+  </si>
+  <si>
+    <t>The negative movement of the market invalidated this trend. It was a correct setup that was altered by the market</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>18 days</t>
+  </si>
+  <si>
+    <t>Perfect entry. Stopped out because is losing momentum.</t>
+  </si>
+  <si>
+    <t>ihs</t>
+  </si>
+  <si>
+    <t>IHS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,18 +830,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -926,13 +1197,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05406170-A489-4C8C-B698-A8974D996514}">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="13" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="13" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
@@ -1024,8 +1295,8 @@
         <v>44</v>
       </c>
       <c r="H4">
-        <f>VLOOKUP($F$2,$A$3:$D$99,2,FALSE)</f>
-        <v>231.63</v>
+        <f>VLOOKUP($F$2,$A$3:$D$1000,2,FALSE)</f>
+        <v>7.96</v>
       </c>
       <c r="I4" t="s">
         <v>28</v>
@@ -1049,8 +1320,8 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <f>VLOOKUP($F$2,$A$3:$D$99,4,FALSE)</f>
-        <v>222.435</v>
+        <f>VLOOKUP($F$2,$A$3:$D$1000,4,FALSE)</f>
+        <v>7.6899999999999995</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -1074,7 +1345,7 @@
         <v>30</v>
       </c>
       <c r="H6">
-        <v>3600</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1118,7 +1389,7 @@
       </c>
       <c r="H8">
         <f>H4-H5</f>
-        <v>9.1949999999999932</v>
+        <v>0.27000000000000046</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -1143,7 +1414,7 @@
       </c>
       <c r="H9">
         <f>H7/H8</f>
-        <v>5.1114736269711836</v>
+        <v>174.07407407407376</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
@@ -1168,7 +1439,7 @@
       </c>
       <c r="H10">
         <f>H6/H4</f>
-        <v>15.542028234684627</v>
+        <v>515.0753768844221</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
@@ -1193,7 +1464,7 @@
       </c>
       <c r="H11">
         <f>MIN(H9,H10)</f>
-        <v>5.1114736269711836</v>
+        <v>174.07407407407376</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
@@ -1229,14 +1500,14 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>7.11</v>
+        <v>5.03</v>
       </c>
       <c r="C13">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>6.5850000000000009</v>
+        <v>4.625</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
@@ -1329,14 +1600,14 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>69.73</v>
+        <v>77.92</v>
       </c>
       <c r="C19">
         <v>1.68</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>67.210000000000008</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,14 +1795,14 @@
         <v>59</v>
       </c>
       <c r="B32">
-        <v>4.54</v>
+        <v>4.58</v>
       </c>
       <c r="C32">
-        <v>0.3</v>
+        <v>0.20960000000000001</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>4.09</v>
+        <v>4.2656000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1599,14 +1870,14 @@
         <v>65</v>
       </c>
       <c r="B37">
-        <v>239.81</v>
+        <v>215.02</v>
       </c>
       <c r="C37">
-        <v>13.41</v>
+        <v>8.6</v>
       </c>
       <c r="D37">
         <f>B37-(1.5*C37)</f>
-        <v>219.69499999999999</v>
+        <v>202.12</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1629,14 +1900,14 @@
         <v>67</v>
       </c>
       <c r="B39">
-        <v>55.58</v>
+        <v>57.51</v>
       </c>
       <c r="C39">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="D39">
         <f>B39-(1*C39)</f>
-        <v>53.85</v>
+        <v>56.07</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1644,14 +1915,14 @@
         <v>68</v>
       </c>
       <c r="B40">
-        <v>194.3</v>
+        <v>191.56</v>
       </c>
       <c r="C40">
-        <v>7.59</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="D40">
-        <f>B40-(2*C40)</f>
-        <v>179.12</v>
+        <f>B40-(1.5*C40)</f>
+        <v>183.89500000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,14 +2080,14 @@
         <v>19</v>
       </c>
       <c r="B51">
-        <v>39.479999999999997</v>
+        <v>38.479999999999997</v>
       </c>
       <c r="C51">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="D51">
-        <f>B51-(1.2*C51)</f>
-        <v>38.735999999999997</v>
+        <f>B51-(1.5*C51)</f>
+        <v>37.669999999999995</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,14 +2095,14 @@
         <v>79</v>
       </c>
       <c r="B52">
-        <v>169.86</v>
+        <v>181.7</v>
       </c>
       <c r="C52">
-        <v>8.98</v>
+        <v>7.4</v>
       </c>
       <c r="D52">
-        <f>B52-(1.5*C52)</f>
-        <v>156.39000000000001</v>
+        <f>B52-(1*C52)</f>
+        <v>174.29999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1884,14 +2155,14 @@
         <v>112</v>
       </c>
       <c r="B56">
-        <v>77.52</v>
+        <v>82.79</v>
       </c>
       <c r="C56">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="D56">
         <f t="shared" ref="D56:D61" si="1">B56-(1.5*C56)</f>
-        <v>76.289999999999992</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,14 +2200,14 @@
         <v>116</v>
       </c>
       <c r="B59">
-        <v>99.09</v>
+        <v>106.85</v>
       </c>
       <c r="C59">
-        <v>4.87</v>
+        <v>4.29</v>
       </c>
       <c r="D59">
         <f>B59-(1.5*C59)</f>
-        <v>91.784999999999997</v>
+        <v>100.41499999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1959,14 +2230,14 @@
         <v>121</v>
       </c>
       <c r="B61">
-        <v>125.37</v>
+        <v>117.19</v>
       </c>
       <c r="C61">
         <v>3.25</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>120.495</v>
+        <v>112.315</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2019,14 +2290,14 @@
         <v>125</v>
       </c>
       <c r="B65">
-        <v>53.9</v>
+        <v>55.65</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="D65">
-        <f>B65-(1*C65)</f>
-        <v>51.9</v>
+        <f>B65-(1.5*C65)</f>
+        <v>53.04</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2034,14 +2305,14 @@
         <v>126</v>
       </c>
       <c r="B66">
-        <v>11.98</v>
+        <v>12.92</v>
       </c>
       <c r="C66">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="D66">
-        <f>B66-(1.2*C66)</f>
-        <v>10.708</v>
+        <f>B66-(1*C66)</f>
+        <v>11.879999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2055,7 +2326,7 @@
         <v>0.1605</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D73" si="2">B67-(2*C67)</f>
+        <f t="shared" ref="D67:D71" si="2">B67-(2*C67)</f>
         <v>1.849</v>
       </c>
     </row>
@@ -2079,14 +2350,14 @@
         <v>130</v>
       </c>
       <c r="B69">
-        <v>25.69</v>
+        <v>30.83</v>
       </c>
       <c r="C69">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
-        <v>23.21</v>
+        <f>B69-(1.5*C69)</f>
+        <v>28.474999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2094,14 +2365,14 @@
         <v>131</v>
       </c>
       <c r="B70">
-        <v>23.23</v>
+        <v>21.98</v>
       </c>
       <c r="C70">
         <v>1.17</v>
       </c>
       <c r="D70">
-        <f>B70-(1*C70)</f>
-        <v>22.060000000000002</v>
+        <f>B70-(1.5*C70)</f>
+        <v>20.225000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,14 +2410,14 @@
         <v>135</v>
       </c>
       <c r="B73">
-        <v>25.03</v>
+        <v>26.08</v>
       </c>
       <c r="C73">
         <v>0.64</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
-        <v>23.75</v>
+        <f>B73-(1.5*C73)</f>
+        <v>25.119999999999997</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2229,14 +2500,14 @@
         <v>143</v>
       </c>
       <c r="B79">
-        <v>4.16</v>
+        <v>6.07</v>
       </c>
       <c r="C79">
-        <v>0.30859999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="D79">
         <f>B79-(1.5*C79)</f>
-        <v>3.6971000000000003</v>
+        <v>5.4550000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2304,14 +2575,344 @@
         <v>161</v>
       </c>
       <c r="B84">
-        <v>104.36</v>
+        <v>107.61</v>
       </c>
       <c r="C84">
-        <v>2.34</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D84">
-        <f>B84-(1.5*C84)</f>
-        <v>100.85</v>
+        <f t="shared" ref="D84:D102" si="3">B84-(1.5*C84)</f>
+        <v>104.595</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85">
+        <v>91.5</v>
+      </c>
+      <c r="C85">
+        <v>3.18</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>86.73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86">
+        <v>62.65</v>
+      </c>
+      <c r="C86">
+        <v>1.97</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>59.695</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87">
+        <v>605</v>
+      </c>
+      <c r="C87">
+        <v>16.64</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>580.04</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88">
+        <v>199.97</v>
+      </c>
+      <c r="C88">
+        <v>4.13</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>193.77500000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89">
+        <v>119.97</v>
+      </c>
+      <c r="C89">
+        <v>2.63</v>
+      </c>
+      <c r="D89">
+        <f>B89-(2*C89)</f>
+        <v>114.71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90">
+        <v>22.98</v>
+      </c>
+      <c r="C90">
+        <v>0.63</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>22.035</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91">
+        <v>60.14</v>
+      </c>
+      <c r="C91">
+        <v>1.01</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>58.625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92">
+        <v>20.6</v>
+      </c>
+      <c r="C92">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>19.521800000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93">
+        <v>11.91</v>
+      </c>
+      <c r="C93">
+        <v>0.73560000000000003</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>10.8066</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94">
+        <v>11.98</v>
+      </c>
+      <c r="C94">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>10.688500000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95">
+        <v>220.05</v>
+      </c>
+      <c r="C95">
+        <v>5.05</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>212.47500000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96">
+        <v>23.31</v>
+      </c>
+      <c r="C96">
+        <v>0.45</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>22.634999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97">
+        <v>4.59</v>
+      </c>
+      <c r="C97">
+        <v>0.45639999999999997</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>3.9053999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98">
+        <v>326.01</v>
+      </c>
+      <c r="C98">
+        <v>7.54</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="3"/>
+        <v>314.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99">
+        <v>47.69</v>
+      </c>
+      <c r="C99">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="3"/>
+        <v>45.964999999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="C100">
+        <v>1.33</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="3"/>
+        <v>73.905000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>217</v>
+      </c>
+      <c r="B101">
+        <v>1.48</v>
+      </c>
+      <c r="C101">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="3"/>
+        <v>1.3531</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102">
+        <v>59.2</v>
+      </c>
+      <c r="C102">
+        <v>2.71</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="3"/>
+        <v>55.135000000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>232</v>
+      </c>
+      <c r="B103">
+        <v>334.38</v>
+      </c>
+      <c r="C103">
+        <v>12.93</v>
+      </c>
+      <c r="D103">
+        <f>B103-(1*C103)</f>
+        <v>321.45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104">
+        <v>459.57</v>
+      </c>
+      <c r="C104">
+        <v>15.64</v>
+      </c>
+      <c r="D104">
+        <f>B104-(1*C104)</f>
+        <v>443.93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>247</v>
+      </c>
+      <c r="B105">
+        <v>7.96</v>
+      </c>
+      <c r="C105">
+        <v>0.27</v>
+      </c>
+      <c r="D105">
+        <f>B105-(1*C105)</f>
+        <v>7.6899999999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>243</v>
+      </c>
+      <c r="B106">
+        <v>542.04999999999995</v>
+      </c>
+      <c r="C106">
+        <v>11.04</v>
+      </c>
+      <c r="D106">
+        <f>B106-(1*C106)</f>
+        <v>531.01</v>
       </c>
     </row>
   </sheetData>
@@ -2533,15 +3134,15 @@
       </c>
       <c r="B13">
         <f>VLOOKUP(A13,'Stop Loss Calculator'!$A$3:$D$99,2,FALSE)</f>
-        <v>4.54</v>
+        <v>4.58</v>
       </c>
       <c r="C13">
         <f>VLOOKUP(A13,'Stop Loss Calculator'!$A$3:$D$99,4,FALSE)</f>
-        <v>4.09</v>
+        <v>4.2656000000000001</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13" si="1">50/(B13-C13)</f>
-        <v>111.11111111111107</v>
+        <v>159.03307888040712</v>
       </c>
     </row>
   </sheetData>
@@ -2551,29 +3152,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2A77BB-0F93-4C87-9B0A-B8954405005E}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <pane xSplit="13" ySplit="9" topLeftCell="N79" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="101.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>91</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <f>COUNTIF(M:M,"Win")/COUNTA(M:M)</f>
         <v>0.5</v>
       </c>
@@ -2587,7 +3188,7 @@
       </c>
       <c r="B2">
         <f>AVERAGEIF(M:M,"Win",I:I)</f>
-        <v>7.6328359280818336</v>
+        <v>10.071154772425853</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2596,7 +3197,7 @@
       </c>
       <c r="B3">
         <f>AVERAGEIF(M:M,"Loss",I:I)</f>
-        <v>-5.4059804874115303</v>
+        <v>-4.5206462908951899</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2605,7 +3206,7 @@
       </c>
       <c r="B4">
         <f>AVERAGE(L:L)</f>
-        <v>0.31136268428506697</v>
+        <v>0.43817709654998532</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2614,7 +3215,7 @@
       </c>
       <c r="B5">
         <f>(B1*B2+(1-B1)*B3)</f>
-        <v>1.1134277203351517</v>
+        <v>2.7752542407653316</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2672,7 +3273,7 @@
         <v>225.6</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(B10,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B10,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>6.13</v>
       </c>
       <c r="E10">
@@ -2721,18 +3322,18 @@
       </c>
       <c r="C11">
         <f>VLOOKUP(B11,'Stop Loss Calculator'!$A$3:$D$99,2,FALSE)</f>
-        <v>7.11</v>
+        <v>5.03</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(B11,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
-        <v>0.35</v>
+        <f>VLOOKUP(B11,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.27</v>
       </c>
       <c r="E11">
         <v>6.68</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F36" si="5">C11-(1.5*D11)</f>
-        <v>6.5850000000000009</v>
+        <f t="shared" ref="F11:F88" si="5">C11-(1.5*D11)</f>
+        <v>4.625</v>
       </c>
       <c r="G11" t="s">
         <v>105</v>
@@ -2742,23 +3343,23 @@
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>-6.0478199718706129</v>
+        <v>32.803180914512907</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>7.3839662447257304</v>
+        <v>8.0516898608349941</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>-6.0478199718706129</v>
+        <v>32.803180914512907</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>-0.81904761904762102</v>
+        <v>4.07407407407407</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="4"/>
-        <v>Loss</v>
+        <v>Win</v>
       </c>
       <c r="N11" t="s">
         <v>97</v>
@@ -2775,7 +3376,7 @@
         <v>225.6</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(B12,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B12,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>6.13</v>
       </c>
       <c r="E12">
@@ -2826,15 +3427,15 @@
         <v>239.81</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(B13,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
-        <v>13.41</v>
+        <f>VLOOKUP(B13,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>8.6</v>
       </c>
       <c r="E13">
         <v>253.21</v>
       </c>
       <c r="F13">
         <f t="shared" si="5"/>
-        <v>219.69499999999999</v>
+        <v>226.91</v>
       </c>
       <c r="G13" t="s">
         <v>105</v>
@@ -2848,7 +3449,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>8.3878904132438219</v>
+        <v>5.3792585797089387</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
@@ -2856,7 +3457,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>0.66616952522992789</v>
+        <v>1.0387596899224807</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="4"/>
@@ -2877,7 +3478,7 @@
         <v>1023.19</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(B14,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B14,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>25.4</v>
       </c>
       <c r="E14">
@@ -2928,7 +3529,7 @@
         <v>35.83</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(B15,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B15,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>0.71</v>
       </c>
       <c r="E15">
@@ -2976,7 +3577,7 @@
         <v>8.32</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(B16,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B16,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>1.01</v>
       </c>
       <c r="E16">
@@ -3024,7 +3625,7 @@
         <v>16.260000000000002</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(B17,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B17,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>0.45</v>
       </c>
       <c r="E17">
@@ -3072,7 +3673,7 @@
         <v>4.13</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(B18,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B18,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>0.24379999999999999</v>
       </c>
       <c r="E18">
@@ -3120,7 +3721,7 @@
         <v>40.33</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(B19,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B19,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>1.57</v>
       </c>
       <c r="E19">
@@ -3168,15 +3769,15 @@
         <v>77.12</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(B20,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
-        <v>0.82</v>
+        <f>VLOOKUP(B20,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.86</v>
       </c>
       <c r="E20">
         <v>76.739999999999995</v>
       </c>
       <c r="F20">
         <f t="shared" si="5"/>
-        <v>75.89</v>
+        <v>75.83</v>
       </c>
       <c r="G20" t="s">
         <v>105</v>
@@ -3187,7 +3788,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="7"/>
-        <v>1.5949170124481378</v>
+        <v>1.6727178423236593</v>
       </c>
       <c r="K20">
         <f t="shared" si="8"/>
@@ -3195,7 +3796,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="9"/>
-        <v>-0.30894308943090115</v>
+        <v>-0.29457364341085879</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="10"/>
@@ -3216,7 +3817,7 @@
         <v>125.37</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(B21,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B21,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>3.25</v>
       </c>
       <c r="E21">
@@ -3264,7 +3865,7 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(B22,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B22,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>0.34610000000000002</v>
       </c>
       <c r="E22">
@@ -3312,7 +3913,7 @@
         <v>120.06</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(B23,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B23,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>3.33</v>
       </c>
       <c r="E23">
@@ -3360,7 +3961,7 @@
         <v>26.85</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(B24,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B24,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E24">
@@ -3405,7 +4006,7 @@
         <v>61.6</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(B25,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B25,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>2.72</v>
       </c>
       <c r="E25">
@@ -3416,23 +4017,23 @@
         <v>57.52</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I36" si="25">(E25-C25)/C25*(100)</f>
+        <f t="shared" ref="I25:I59" si="25">(E25-C25)/C25*(100)</f>
         <v>-8.8311688311688386</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25:J36" si="26">(C25-F25)/C25*100</f>
+        <f t="shared" ref="J25:J59" si="26">(C25-F25)/C25*100</f>
         <v>6.62337662337662</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:K36" si="27">(E25-C25)/C25*100</f>
+        <f t="shared" ref="K25:K59" si="27">(E25-C25)/C25*100</f>
         <v>-8.8311688311688386</v>
       </c>
       <c r="L25">
-        <f t="shared" ref="L25:L36" si="28">K25/J25</f>
+        <f t="shared" ref="L25:L59" si="28">K25/J25</f>
         <v>-1.333333333333335</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" ref="M25:M36" si="29">IF(I25&gt;0,"Win","Loss")</f>
+        <f t="shared" ref="M25:M59" si="29">IF(I25&gt;0,"Win","Loss")</f>
         <v>Loss</v>
       </c>
       <c r="N25" t="s">
@@ -3450,7 +4051,7 @@
         <v>44.15</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(B26,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B26,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>0.96</v>
       </c>
       <c r="E26">
@@ -3498,15 +4099,15 @@
         <v>46.33</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(B27,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(B27,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>1.74</v>
       </c>
       <c r="E27">
         <v>52.95</v>
       </c>
       <c r="F27">
         <f t="shared" si="5"/>
-        <v>43.33</v>
+        <v>43.72</v>
       </c>
       <c r="G27" t="s">
         <v>117</v>
@@ -3517,7 +4118,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="26"/>
-        <v>6.4752859917979713</v>
+        <v>5.6334988128642332</v>
       </c>
       <c r="K27">
         <f t="shared" si="27"/>
@@ -3525,7 +4126,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="28"/>
-        <v>2.2066666666666683</v>
+        <v>2.5363984674329529</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="29"/>
@@ -3546,15 +4147,15 @@
         <v>46.33</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP(B28,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(B28,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>1.74</v>
       </c>
       <c r="E28">
         <v>53.84</v>
       </c>
       <c r="F28">
         <f t="shared" si="5"/>
-        <v>43.33</v>
+        <v>43.72</v>
       </c>
       <c r="G28" t="s">
         <v>117</v>
@@ -3565,7 +4166,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="26"/>
-        <v>6.4752859917979713</v>
+        <v>5.6334988128642332</v>
       </c>
       <c r="K28">
         <f t="shared" si="27"/>
@@ -3573,7 +4174,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="28"/>
-        <v>2.5033333333333356</v>
+        <v>2.8773946360153291</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="29"/>
@@ -3594,7 +4195,7 @@
         <v>153.49</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP(B29,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B29,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="E29">
@@ -3642,7 +4243,7 @@
         <v>146.08000000000001</v>
       </c>
       <c r="D30">
-        <f>VLOOKUP(B30,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B30,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>2.94</v>
       </c>
       <c r="E30">
@@ -3690,7 +4291,7 @@
         <v>8.52</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP(B31,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B31,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>1.03</v>
       </c>
       <c r="E31">
@@ -3738,15 +4339,15 @@
         <v>46.33</v>
       </c>
       <c r="D32">
-        <f>VLOOKUP(B32,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(B32,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>1.74</v>
       </c>
       <c r="E32">
         <v>54.09</v>
       </c>
       <c r="F32">
         <f t="shared" si="5"/>
-        <v>43.33</v>
+        <v>43.72</v>
       </c>
       <c r="G32" t="s">
         <v>155</v>
@@ -3757,7 +4358,7 @@
       </c>
       <c r="J32">
         <f t="shared" si="26"/>
-        <v>6.4752859917979713</v>
+        <v>5.6334988128642332</v>
       </c>
       <c r="K32">
         <f t="shared" si="27"/>
@@ -3765,7 +4366,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="28"/>
-        <v>2.5866666666666687</v>
+        <v>2.9731800766283558</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="29"/>
@@ -3786,7 +4387,7 @@
         <v>39.479999999999997</v>
       </c>
       <c r="D33">
-        <f>VLOOKUP(B33,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B33,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>0.64</v>
       </c>
       <c r="E33">
@@ -3834,7 +4435,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP(B34,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B34,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="E34">
@@ -3882,7 +4483,7 @@
         <v>126.22</v>
       </c>
       <c r="D35">
-        <f>VLOOKUP(B35,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B35,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>2.76</v>
       </c>
       <c r="E35">
@@ -3930,7 +4531,7 @@
         <v>40.590000000000003</v>
       </c>
       <c r="D36">
-        <f>VLOOKUP(B36,'Stop Loss Calculator'!$A$3:$D$99,3,FALSE)</f>
+        <f>VLOOKUP(B36,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
         <v>1.81</v>
       </c>
       <c r="E36">
@@ -3967,8 +4568,2886 @@
         <v>160</v>
       </c>
     </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45993</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37">
+        <v>99.43</v>
+      </c>
+      <c r="D37">
+        <f>VLOOKUP(B37,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>4.29</v>
+      </c>
+      <c r="E37">
+        <v>91.73</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>92.995000000000005</v>
+      </c>
+      <c r="G37" t="s">
+        <v>162</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="25"/>
+        <v>-7.7441416071608193</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="26"/>
+        <v>6.4718897716986845</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="27"/>
+        <v>-7.7441416071608193</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="28"/>
+        <v>-1.1965811965811965</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="29"/>
+        <v>Loss</v>
+      </c>
+      <c r="N37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45995</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38">
+        <v>12.01</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP(B38,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>1.04</v>
+      </c>
+      <c r="E38">
+        <v>14.06</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>10.45</v>
+      </c>
+      <c r="G38" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="25"/>
+        <v>17.069109075770196</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="26"/>
+        <v>12.989175686927565</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="27"/>
+        <v>17.069109075770196</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="28"/>
+        <v>1.3141025641025641</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="29"/>
+        <v>Win</v>
+      </c>
+      <c r="N38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45995</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39">
+        <v>223.2</v>
+      </c>
+      <c r="D39">
+        <f>VLOOKUP(B39,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>5.88</v>
+      </c>
+      <c r="E39">
+        <v>227.02</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>214.38</v>
+      </c>
+      <c r="G39" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="25"/>
+        <v>1.7114695340501891</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="26"/>
+        <v>3.9516129032258034</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="27"/>
+        <v>1.7114695340501891</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="28"/>
+        <v>0.43310657596372165</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="29"/>
+        <v>Win</v>
+      </c>
+      <c r="N39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45996</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40">
+        <v>186.37</v>
+      </c>
+      <c r="D40">
+        <f>VLOOKUP(B40,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>5.4</v>
+      </c>
+      <c r="E40">
+        <v>175.55</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>178.27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="25"/>
+        <v>-5.8056554166443055</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="26"/>
+        <v>4.3461930568224467</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="27"/>
+        <v>-5.8056554166443055</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="28"/>
+        <v>-1.3358024691358026</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="29"/>
+        <v>Loss</v>
+      </c>
+      <c r="N40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45996</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="D41">
+        <f>VLOOKUP(B41,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="E41">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>8.7008500000000009</v>
+      </c>
+      <c r="G41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="25"/>
+        <v>-5.6399132321041359</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="26"/>
+        <v>5.630694143167025</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="27"/>
+        <v>-5.6399132321041359</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="28"/>
+        <v>-1.0016372917268643</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="29"/>
+        <v>Loss</v>
+      </c>
+      <c r="N41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45996</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42">
+        <v>21.98</v>
+      </c>
+      <c r="D42">
+        <f>VLOOKUP(B42,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>1.17</v>
+      </c>
+      <c r="E42">
+        <v>20.83</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>20.225000000000001</v>
+      </c>
+      <c r="G42" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="25"/>
+        <v>-5.2320291173794455</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="26"/>
+        <v>7.9845313921747003</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="27"/>
+        <v>-5.2320291173794455</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="28"/>
+        <v>-0.65527065527065675</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="29"/>
+        <v>Loss</v>
+      </c>
+      <c r="N42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45999</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="D43">
+        <f>VLOOKUP(B43,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="E43">
+        <v>15.82</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>15.884999999999998</v>
+      </c>
+      <c r="G43" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="25"/>
+        <v>-4.4685990338164157</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="26"/>
+        <v>4.0760869565217437</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="27"/>
+        <v>-4.4685990338164157</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="28"/>
+        <v>-1.0962962962962928</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="29"/>
+        <v>Loss</v>
+      </c>
+      <c r="N43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45999</v>
+      </c>
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44">
+        <v>150.21</v>
+      </c>
+      <c r="D44">
+        <f>VLOOKUP(B44,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E44">
+        <v>154.22</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>146.88</v>
+      </c>
+      <c r="G44" t="s">
+        <v>149</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="25"/>
+        <v>2.6695958990746229</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="26"/>
+        <v>2.2168963451168446</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="27"/>
+        <v>2.6695958990746229</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="28"/>
+        <v>1.2042042042041972</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="29"/>
+        <v>Win</v>
+      </c>
+      <c r="N44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45999</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45">
+        <v>80.23</v>
+      </c>
+      <c r="D45">
+        <f>VLOOKUP(B45,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>1.88</v>
+      </c>
+      <c r="E45">
+        <v>77.75</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>77.410000000000011</v>
+      </c>
+      <c r="G45" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="25"/>
+        <v>-3.0911130499813084</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="26"/>
+        <v>3.5148946778013128</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="27"/>
+        <v>-3.0911130499813084</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="28"/>
+        <v>-0.87943262411347856</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="29"/>
+        <v>Loss</v>
+      </c>
+      <c r="N45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>46000</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46">
+        <v>173.99</v>
+      </c>
+      <c r="D46">
+        <f>VLOOKUP(B46,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>3.46</v>
+      </c>
+      <c r="E46">
+        <v>177.02</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="5"/>
+        <v>168.8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>149</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="25"/>
+        <v>1.7414793953675505</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="26"/>
+        <v>2.9829300534513465</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="27"/>
+        <v>1.7414793953675505</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="28"/>
+        <v>0.58381502890173453</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="29"/>
+        <v>Win</v>
+      </c>
+      <c r="N46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47">
+        <v>11.99</v>
+      </c>
+      <c r="D47">
+        <f>VLOOKUP(B47,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>1.04</v>
+      </c>
+      <c r="E47">
+        <v>13.75</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="5"/>
+        <v>10.43</v>
+      </c>
+      <c r="G47" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="25"/>
+        <v>14.678899082568805</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="26"/>
+        <v>13.010842368640537</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="27"/>
+        <v>14.678899082568805</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="28"/>
+        <v>1.1282051282051277</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="29"/>
+        <v>Win</v>
+      </c>
+      <c r="N47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>46000</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="D48">
+        <f>VLOOKUP(B48,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E48">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="5"/>
+        <v>9.2669999999999995</v>
+      </c>
+      <c r="G48" t="s">
+        <v>149</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="26"/>
+        <v>6.1094224924012144</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="29"/>
+        <v>Loss</v>
+      </c>
+      <c r="N48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>231.81</v>
+      </c>
+      <c r="D49">
+        <f>VLOOKUP(B49,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>6.13</v>
+      </c>
+      <c r="E49">
+        <v>227.18</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="5"/>
+        <v>222.61500000000001</v>
+      </c>
+      <c r="G49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="25"/>
+        <v>-1.9973253957982811</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="26"/>
+        <v>3.9666105862559822</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="27"/>
+        <v>-1.9973253957982811</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="28"/>
+        <v>-0.50353452963567147</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="29"/>
+        <v>Loss</v>
+      </c>
+      <c r="N49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50">
+        <v>104.49</v>
+      </c>
+      <c r="D50">
+        <f>VLOOKUP(B50,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E50">
+        <v>108.28</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="5"/>
+        <v>101.47499999999999</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="25"/>
+        <v>3.6271413532395504</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="26"/>
+        <v>2.8854435831180023</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="27"/>
+        <v>3.6271413532395504</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="28"/>
+        <v>1.2570480928689902</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="29"/>
+        <v>Win</v>
+      </c>
+      <c r="N50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>46007</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>152.85</v>
+      </c>
+      <c r="D51">
+        <f>VLOOKUP(B51,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>7.35</v>
+      </c>
+      <c r="E51">
+        <v>156.87</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="5"/>
+        <v>141.82499999999999</v>
+      </c>
+      <c r="G51" t="s">
+        <v>110</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="25"/>
+        <v>2.6300294406280735</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="26"/>
+        <v>7.2129538763493661</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="27"/>
+        <v>2.6300294406280735</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="28"/>
+        <v>0.36462585034013678</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="29"/>
+        <v>Win</v>
+      </c>
+      <c r="N51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>46007</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52">
+        <v>26.08</v>
+      </c>
+      <c r="D52">
+        <f>VLOOKUP(B52,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.64</v>
+      </c>
+      <c r="E52">
+        <v>25.12</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="5"/>
+        <v>25.119999999999997</v>
+      </c>
+      <c r="G52" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="25"/>
+        <v>-3.6809815950920144</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="26"/>
+        <v>3.6809815950920282</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="27"/>
+        <v>-3.6809815950920144</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="28"/>
+        <v>-0.99999999999999623</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="29"/>
+        <v>Loss</v>
+      </c>
+      <c r="N52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>46008</v>
+      </c>
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="D53">
+        <f>VLOOKUP(B53,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E53">
+        <v>33.57</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="5"/>
+        <v>30.825000000000003</v>
+      </c>
+      <c r="G53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="25"/>
+        <v>3.2287822878228694</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="26"/>
+        <v>5.2121771217712176</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="27"/>
+        <v>3.2287822878228694</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="28"/>
+        <v>0.61946902654867086</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="29"/>
+        <v>Win</v>
+      </c>
+      <c r="N53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>46008</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54">
+        <v>182.82</v>
+      </c>
+      <c r="D54">
+        <f>VLOOKUP(B54,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E54">
+        <v>170.86</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="5"/>
+        <v>175.155</v>
+      </c>
+      <c r="G54" t="s">
+        <v>149</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="25"/>
+        <v>-6.5419538343725963</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="26"/>
+        <v>4.1926485067279256</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="27"/>
+        <v>-6.5419538343725963</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="28"/>
+        <v>-1.5603392041748194</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="29"/>
+        <v>Loss</v>
+      </c>
+      <c r="N54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>46008</v>
+      </c>
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55">
+        <v>10.26</v>
+      </c>
+      <c r="D55">
+        <f>VLOOKUP(B55,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.65</v>
+      </c>
+      <c r="E55">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="5"/>
+        <v>9.2850000000000001</v>
+      </c>
+      <c r="G55" t="s">
+        <v>183</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="25"/>
+        <v>-6.1403508771929731</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="26"/>
+        <v>9.5029239766081837</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="27"/>
+        <v>-6.1403508771929731</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="28"/>
+        <v>-0.64615384615384541</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="29"/>
+        <v>Loss</v>
+      </c>
+      <c r="N55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>46008</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56">
+        <v>11.7</v>
+      </c>
+      <c r="D56">
+        <f>VLOOKUP(B56,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.59</v>
+      </c>
+      <c r="E56">
+        <v>11.42</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="5"/>
+        <v>10.815</v>
+      </c>
+      <c r="G56" t="s">
+        <v>185</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="25"/>
+        <v>-2.3931623931623878</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="26"/>
+        <v>7.5641025641025621</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="27"/>
+        <v>-2.3931623931623878</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="28"/>
+        <v>-0.31638418079095981</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="29"/>
+        <v>Loss</v>
+      </c>
+      <c r="N56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>46008</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57">
+        <v>156.21</v>
+      </c>
+      <c r="D57">
+        <f>VLOOKUP(B57,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E57">
+        <v>153.76</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="5"/>
+        <v>152.88</v>
+      </c>
+      <c r="G57" t="s">
+        <v>149</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="25"/>
+        <v>-1.5684015107867721</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="26"/>
+        <v>2.1317457269060958</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="27"/>
+        <v>-1.5684015107867721</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="28"/>
+        <v>-0.73573573573573803</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="29"/>
+        <v>Loss</v>
+      </c>
+      <c r="N57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>46009</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58">
+        <v>169.32</v>
+      </c>
+      <c r="D58">
+        <f>VLOOKUP(B58,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>7.4</v>
+      </c>
+      <c r="E58">
+        <v>185.69</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="5"/>
+        <v>158.22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>188</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="25"/>
+        <v>9.6680841011103258</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="26"/>
+        <v>6.5556343019135337</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="27"/>
+        <v>9.6680841011103258</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="28"/>
+        <v>1.4747747747747757</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="29"/>
+        <v>Win</v>
+      </c>
+      <c r="N58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>46010</v>
+      </c>
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59">
+        <v>62.76</v>
+      </c>
+      <c r="D59">
+        <f>VLOOKUP(B59,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>1.97</v>
+      </c>
+      <c r="E59">
+        <v>59.25</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="5"/>
+        <v>59.805</v>
+      </c>
+      <c r="G59" t="s">
+        <v>164</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="25"/>
+        <v>-5.5927342256214114</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="26"/>
+        <v>4.708413001912044</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="27"/>
+        <v>-5.5927342256214114</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="28"/>
+        <v>-1.1878172588832485</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="29"/>
+        <v>Loss</v>
+      </c>
+      <c r="N59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>46014</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="D60">
+        <f>VLOOKUP(B60,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.27</v>
+      </c>
+      <c r="E60">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="5"/>
+        <v>4.6549999999999994</v>
+      </c>
+      <c r="G60" t="s">
+        <v>108</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60:I74" si="30">(E60-C60)/C60*(100)</f>
+        <v>-3.359683794466402</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ref="J60:J74" si="31">(C60-F60)/C60*100</f>
+        <v>8.0039525691699662</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ref="K60:K74" si="32">(E60-C60)/C60*100</f>
+        <v>-3.359683794466402</v>
+      </c>
+      <c r="L60">
+        <f t="shared" ref="L60:L74" si="33">K60/J60</f>
+        <v>-0.41975308641975262</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" ref="M60:M74" si="34">IF(I60&gt;0,"Win","Loss")</f>
+        <v>Loss</v>
+      </c>
+      <c r="N60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>46024</v>
+      </c>
+      <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61">
+        <v>107.61</v>
+      </c>
+      <c r="D61">
+        <f>VLOOKUP(B61,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E61">
+        <v>104.58</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="5"/>
+        <v>104.595</v>
+      </c>
+      <c r="G61" t="s">
+        <v>149</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="30"/>
+        <v>-2.815723445776416</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="31"/>
+        <v>2.801784220797324</v>
+      </c>
+      <c r="K61">
+        <f>(E61-C61)/C61*100</f>
+        <v>-2.815723445776416</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="33"/>
+        <v>-1.0049751243781098</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="34"/>
+        <v>Loss</v>
+      </c>
+      <c r="N61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>46027</v>
+      </c>
+      <c r="B62" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62">
+        <v>225.74</v>
+      </c>
+      <c r="D62">
+        <f>VLOOKUP(B62,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>5.05</v>
+      </c>
+      <c r="E62">
+        <v>219.77</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="5"/>
+        <v>218.16500000000002</v>
+      </c>
+      <c r="G62" t="s">
+        <v>118</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="30"/>
+        <v>-2.6446354212811194</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="31"/>
+        <v>3.3556303712235267</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="32"/>
+        <v>-2.6446354212811194</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="33"/>
+        <v>-0.78811881188118915</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="34"/>
+        <v>Loss</v>
+      </c>
+      <c r="N62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>46028</v>
+      </c>
+      <c r="B63" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63">
+        <v>119.97</v>
+      </c>
+      <c r="D63">
+        <f>VLOOKUP(B63,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>2.63</v>
+      </c>
+      <c r="E63">
+        <v>112.62</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="5"/>
+        <v>116.02500000000001</v>
+      </c>
+      <c r="G63" t="s">
+        <v>171</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="30"/>
+        <v>-6.1265316329082227</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="31"/>
+        <v>3.2883220805201243</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="32"/>
+        <v>-6.1265316329082227</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="33"/>
+        <v>-1.8631178707224354</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="34"/>
+        <v>Loss</v>
+      </c>
+      <c r="N63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>46029</v>
+      </c>
+      <c r="B64" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64">
+        <v>22.31</v>
+      </c>
+      <c r="D64">
+        <f>VLOOKUP(B64,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.63</v>
+      </c>
+      <c r="E64">
+        <v>22.99</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="5"/>
+        <v>21.364999999999998</v>
+      </c>
+      <c r="G64" t="s">
+        <v>162</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="30"/>
+        <v>3.0479605558045706</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="31"/>
+        <v>4.2357687135813551</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="32"/>
+        <v>3.0479605558045706</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="33"/>
+        <v>0.71957671957671898</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="34"/>
+        <v>Win</v>
+      </c>
+      <c r="N64" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>46030</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65">
+        <v>215.34</v>
+      </c>
+      <c r="D65">
+        <f>VLOOKUP(B65,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>8.6</v>
+      </c>
+      <c r="E65">
+        <v>204.71</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="5"/>
+        <v>202.44</v>
+      </c>
+      <c r="G65" t="s">
+        <v>164</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="30"/>
+        <v>-4.9363796786477181</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="31"/>
+        <v>5.9905266090833127</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="32"/>
+        <v>-4.9363796786477181</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="33"/>
+        <v>-0.82403100775193738</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="34"/>
+        <v>Loss</v>
+      </c>
+      <c r="N65" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>46030</v>
+      </c>
+      <c r="B66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66">
+        <v>20.7</v>
+      </c>
+      <c r="D66">
+        <f>VLOOKUP(B66,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="E66">
+        <v>23.16</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="5"/>
+        <v>19.6218</v>
+      </c>
+      <c r="G66" t="s">
+        <v>176</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="30"/>
+        <v>11.884057971014498</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="31"/>
+        <v>5.2086956521739083</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="32"/>
+        <v>11.884057971014498</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="33"/>
+        <v>2.2815804117974432</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="34"/>
+        <v>Win</v>
+      </c>
+      <c r="N66" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>46034</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <v>215.34</v>
+      </c>
+      <c r="D67">
+        <f>VLOOKUP(B67,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>8.6</v>
+      </c>
+      <c r="E67">
+        <v>201.03</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="5"/>
+        <v>202.44</v>
+      </c>
+      <c r="G67" t="s">
+        <v>152</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="30"/>
+        <v>-6.6453050989133473</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="31"/>
+        <v>5.9905266090833127</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="32"/>
+        <v>-6.6453050989133473</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="33"/>
+        <v>-1.109302325581395</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" si="34"/>
+        <v>Loss</v>
+      </c>
+      <c r="N67" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>46034</v>
+      </c>
+      <c r="B68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68">
+        <v>20.7</v>
+      </c>
+      <c r="D68">
+        <f>VLOOKUP(B68,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="E68">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="5"/>
+        <v>19.6218</v>
+      </c>
+      <c r="G68" t="s">
+        <v>107</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="30"/>
+        <v>-10.338164251207733</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="31"/>
+        <v>5.2086956521739083</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="32"/>
+        <v>-10.338164251207733</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="33"/>
+        <v>-1.9847894639213528</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="34"/>
+        <v>Loss</v>
+      </c>
+      <c r="N68" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>46036</v>
+      </c>
+      <c r="B69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69">
+        <v>55.56</v>
+      </c>
+      <c r="D69">
+        <f>VLOOKUP(B69,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>1.74</v>
+      </c>
+      <c r="E69">
+        <v>52.98</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="5"/>
+        <v>52.95</v>
+      </c>
+      <c r="G69" t="s">
+        <v>113</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="30"/>
+        <v>-4.6436285097192318</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="31"/>
+        <v>4.6976241900647935</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="32"/>
+        <v>-4.6436285097192318</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="33"/>
+        <v>-0.98850574712643902</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="34"/>
+        <v>Loss</v>
+      </c>
+      <c r="N69" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>46038</v>
+      </c>
+      <c r="B70" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70">
+        <v>181.18</v>
+      </c>
+      <c r="D70">
+        <f>VLOOKUP(B70,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>4.13</v>
+      </c>
+      <c r="E70">
+        <v>201.31</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="5"/>
+        <v>174.98500000000001</v>
+      </c>
+      <c r="G70" t="s">
+        <v>213</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="30"/>
+        <v>11.110497847444528</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="31"/>
+        <v>3.4192515730213007</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="32"/>
+        <v>11.110497847444528</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="33"/>
+        <v>3.24939467312349</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="34"/>
+        <v>Win</v>
+      </c>
+      <c r="N70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>46038</v>
+      </c>
+      <c r="B71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D71">
+        <f>VLOOKUP(B71,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E71">
+        <v>10.94</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="5"/>
+        <v>8.0085000000000015</v>
+      </c>
+      <c r="G71" t="s">
+        <v>108</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="30"/>
+        <v>17.634408602150522</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="31"/>
+        <v>13.887096774193539</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="32"/>
+        <v>17.634408602150522</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="33"/>
+        <v>1.2698412698412695</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="34"/>
+        <v>Win</v>
+      </c>
+      <c r="N71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>46042</v>
+      </c>
+      <c r="B72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D72">
+        <f>VLOOKUP(B72,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E72">
+        <v>11.75</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>8.0085000000000015</v>
+      </c>
+      <c r="G72" t="s">
+        <v>149</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="30"/>
+        <v>26.344086021505365</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="31"/>
+        <v>13.887096774193539</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="32"/>
+        <v>26.344086021505365</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="33"/>
+        <v>1.8970189701897024</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="34"/>
+        <v>Win</v>
+      </c>
+      <c r="N72" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>46042</v>
+      </c>
+      <c r="B73" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73">
+        <v>20.13</v>
+      </c>
+      <c r="D73">
+        <f>VLOOKUP(B73,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="E73">
+        <v>22.2</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="5"/>
+        <v>19.454999999999998</v>
+      </c>
+      <c r="G73" t="s">
+        <v>108</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="30"/>
+        <v>10.283159463487335</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="31"/>
+        <v>3.3532041728763078</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="32"/>
+        <v>10.283159463487335</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="33"/>
+        <v>3.0666666666666642</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="34"/>
+        <v>Win</v>
+      </c>
+      <c r="N73" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>46042</v>
+      </c>
+      <c r="B74" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74">
+        <v>20.13</v>
+      </c>
+      <c r="D74">
+        <f>VLOOKUP(B74,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="E74">
+        <v>22.44</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="5"/>
+        <v>19.454999999999998</v>
+      </c>
+      <c r="G74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="30"/>
+        <v>11.475409836065586</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="31"/>
+        <v>3.3532041728763078</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="32"/>
+        <v>11.475409836065586</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="33"/>
+        <v>3.4222222222222221</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="34"/>
+        <v>Win</v>
+      </c>
+      <c r="N74" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>46043</v>
+      </c>
+      <c r="B75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75">
+        <v>1.51</v>
+      </c>
+      <c r="D75">
+        <f>VLOOKUP(B75,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="E75">
+        <v>1.45</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="5"/>
+        <v>1.3831</v>
+      </c>
+      <c r="G75" t="s">
+        <v>118</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ref="I75:I92" si="35">(E75-C75)/C75*(100)</f>
+        <v>-3.9735099337748379</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ref="J75:J92" si="36">(C75-F75)/C75*100</f>
+        <v>8.4039735099337758</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ref="K75:K92" si="37">(E75-C75)/C75*100</f>
+        <v>-3.9735099337748379</v>
+      </c>
+      <c r="L75">
+        <f t="shared" ref="L75:L92" si="38">K75/J75</f>
+        <v>-0.47281323877068593</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" ref="M75:M92" si="39">IF(I75&gt;0,"Win","Loss")</f>
+        <v>Loss</v>
+      </c>
+      <c r="N75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>46044</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="D76">
+        <f>VLOOKUP(B76,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.64</v>
+      </c>
+      <c r="E76">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="5"/>
+        <v>37.130000000000003</v>
+      </c>
+      <c r="G76" t="s">
+        <v>183</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="35"/>
+        <v>2.5203465476502851</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="36"/>
+        <v>2.5203465476503037</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="37"/>
+        <v>2.5203465476502851</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="38"/>
+        <v>0.99999999999999256</v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" si="39"/>
+        <v>Win</v>
+      </c>
+      <c r="N76" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>46044</v>
+      </c>
+      <c r="B77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77">
+        <v>5.32</v>
+      </c>
+      <c r="D77">
+        <f>VLOOKUP(B77,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.41</v>
+      </c>
+      <c r="E77">
+        <v>6.92</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="5"/>
+        <v>4.7050000000000001</v>
+      </c>
+      <c r="G77" t="s">
+        <v>113</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="35"/>
+        <v>30.075187969924805</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="36"/>
+        <v>11.560150375939852</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="37"/>
+        <v>30.075187969924805</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="38"/>
+        <v>2.6016260162601617</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="39"/>
+        <v>Win</v>
+      </c>
+      <c r="N77" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>46044</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78">
+        <v>30.83</v>
+      </c>
+      <c r="D78">
+        <f>VLOOKUP(B78,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>1.57</v>
+      </c>
+      <c r="E78">
+        <v>36.22</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="5"/>
+        <v>28.474999999999998</v>
+      </c>
+      <c r="G78" t="s">
+        <v>108</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="35"/>
+        <v>17.482971132014274</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="36"/>
+        <v>7.6386636393123597</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="37"/>
+        <v>17.482971132014274</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="38"/>
+        <v>2.2887473460721868</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="39"/>
+        <v>Win</v>
+      </c>
+      <c r="N78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>46045</v>
+      </c>
+      <c r="B79" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79">
+        <v>23.03</v>
+      </c>
+      <c r="D79">
+        <f>VLOOKUP(B79,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.63</v>
+      </c>
+      <c r="E79">
+        <v>24.67</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="5"/>
+        <v>22.085000000000001</v>
+      </c>
+      <c r="G79" t="s">
+        <v>164</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="35"/>
+        <v>7.1211463308727767</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="36"/>
+        <v>4.1033434650455938</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="37"/>
+        <v>7.1211463308727767</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="38"/>
+        <v>1.7354497354497356</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="39"/>
+        <v>Win</v>
+      </c>
+      <c r="N79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>46045</v>
+      </c>
+      <c r="B80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80">
+        <v>106.85</v>
+      </c>
+      <c r="D80">
+        <f>VLOOKUP(B80,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>4.29</v>
+      </c>
+      <c r="E80">
+        <v>104.54</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="5"/>
+        <v>100.41499999999999</v>
+      </c>
+      <c r="G80" t="s">
+        <v>118</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="35"/>
+        <v>-2.1619092185306394</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="36"/>
+        <v>6.0224613944782428</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="37"/>
+        <v>-2.1619092185306394</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="38"/>
+        <v>-0.35897435897435703</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="39"/>
+        <v>Loss</v>
+      </c>
+      <c r="N80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>46045</v>
+      </c>
+      <c r="B81" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D81">
+        <f>VLOOKUP(B81,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E81">
+        <v>11.23</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="5"/>
+        <v>8.0085000000000015</v>
+      </c>
+      <c r="G81" t="s">
+        <v>152</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="35"/>
+        <v>20.752688172043008</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="36"/>
+        <v>13.887096774193539</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="37"/>
+        <v>20.752688172043008</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="38"/>
+        <v>1.4943863724351538</v>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" si="39"/>
+        <v>Win</v>
+      </c>
+      <c r="N81" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>46048</v>
+      </c>
+      <c r="B82" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82">
+        <v>1.49</v>
+      </c>
+      <c r="D82">
+        <f>VLOOKUP(B82,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="E82">
+        <v>1.82</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="5"/>
+        <v>1.3631</v>
+      </c>
+      <c r="G82" t="s">
+        <v>176</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="35"/>
+        <v>22.147651006711413</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="36"/>
+        <v>8.5167785234899327</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="37"/>
+        <v>22.147651006711413</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="38"/>
+        <v>2.6004728132387713</v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" si="39"/>
+        <v>Win</v>
+      </c>
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>46049</v>
+      </c>
+      <c r="B83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83">
+        <v>155.49</v>
+      </c>
+      <c r="D83">
+        <f>VLOOKUP(B83,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E83">
+        <v>156.22</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="5"/>
+        <v>152.41500000000002</v>
+      </c>
+      <c r="G83" t="s">
+        <v>227</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="35"/>
+        <v>0.46948356807511077</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="36"/>
+        <v>1.977619139494494</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="37"/>
+        <v>0.46948356807511077</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="38"/>
+        <v>0.23739837398373737</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="39"/>
+        <v>Win</v>
+      </c>
+      <c r="N83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>46049</v>
+      </c>
+      <c r="B84" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84">
+        <v>30.83</v>
+      </c>
+      <c r="D84">
+        <f>VLOOKUP(B84,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>1.57</v>
+      </c>
+      <c r="E84">
+        <v>33.24</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="5"/>
+        <v>28.474999999999998</v>
+      </c>
+      <c r="G84" t="s">
+        <v>188</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="35"/>
+        <v>7.8170613039247607</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="36"/>
+        <v>7.6386636393123597</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="37"/>
+        <v>7.8170613039247607</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="38"/>
+        <v>1.02335456475584</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="39"/>
+        <v>Win</v>
+      </c>
+      <c r="N84" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>46049</v>
+      </c>
+      <c r="B85" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85">
+        <v>1.49</v>
+      </c>
+      <c r="D85">
+        <f>VLOOKUP(B85,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="E85">
+        <v>1.62</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="5"/>
+        <v>1.3631</v>
+      </c>
+      <c r="G85" t="s">
+        <v>105</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="35"/>
+        <v>8.7248322147651081</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="36"/>
+        <v>8.5167785234899327</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="37"/>
+        <v>8.7248322147651081</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="38"/>
+        <v>1.0244286840031529</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="39"/>
+        <v>Win</v>
+      </c>
+      <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>46049</v>
+      </c>
+      <c r="B86" t="s">
+        <v>210</v>
+      </c>
+      <c r="C86">
+        <v>47.69</v>
+      </c>
+      <c r="D86">
+        <f>VLOOKUP(B86,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E86">
+        <v>45.75</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="5"/>
+        <v>45.964999999999996</v>
+      </c>
+      <c r="G86" t="s">
+        <v>152</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="35"/>
+        <v>-4.0679387712308612</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="36"/>
+        <v>3.617110505347036</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="37"/>
+        <v>-4.0679387712308612</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="38"/>
+        <v>-1.1246376811594181</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="39"/>
+        <v>Loss</v>
+      </c>
+      <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>46049</v>
+      </c>
+      <c r="B87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87">
+        <v>155.49</v>
+      </c>
+      <c r="D87">
+        <f>VLOOKUP(B87,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E87">
+        <v>156.69</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="5"/>
+        <v>152.41500000000002</v>
+      </c>
+      <c r="G87" t="s">
+        <v>227</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="35"/>
+        <v>0.77175381053443215</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="36"/>
+        <v>1.977619139494494</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="37"/>
+        <v>0.77175381053443215</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="38"/>
+        <v>0.39024390243902213</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="39"/>
+        <v>Win</v>
+      </c>
+      <c r="N87" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>46050</v>
+      </c>
+      <c r="B88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88">
+        <v>20.13</v>
+      </c>
+      <c r="D88">
+        <f>VLOOKUP(B88,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="E88">
+        <v>24.21</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>19.454999999999998</v>
+      </c>
+      <c r="G88" t="s">
+        <v>233</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="35"/>
+        <v>20.268256333830116</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="36"/>
+        <v>3.3532041728763078</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="37"/>
+        <v>20.268256333830116</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="38"/>
+        <v>6.0444444444444416</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="39"/>
+        <v>Win</v>
+      </c>
+      <c r="N88" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>46050</v>
+      </c>
+      <c r="B89" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89">
+        <v>334.38</v>
+      </c>
+      <c r="D89">
+        <f>VLOOKUP(B89,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>12.93</v>
+      </c>
+      <c r="E89">
+        <v>327.12</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ref="F89:F96" si="40">C89-(1.5*D89)</f>
+        <v>314.98500000000001</v>
+      </c>
+      <c r="G89" t="s">
+        <v>118</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="35"/>
+        <v>-2.1711824869908458</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="36"/>
+        <v>5.8002870985106707</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="37"/>
+        <v>-2.1711824869908458</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="38"/>
+        <v>-0.37432327919566888</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="39"/>
+        <v>Loss</v>
+      </c>
+      <c r="N89" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>46050</v>
+      </c>
+      <c r="B90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90">
+        <v>82.1</v>
+      </c>
+      <c r="D90">
+        <f>VLOOKUP(B90,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.86</v>
+      </c>
+      <c r="E90">
+        <v>82.32</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="40"/>
+        <v>80.809999999999988</v>
+      </c>
+      <c r="G90" t="s">
+        <v>105</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="35"/>
+        <v>0.26796589524969411</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="36"/>
+        <v>1.5712545676004948</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="37"/>
+        <v>0.26796589524969411</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="38"/>
+        <v>0.17054263565891303</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="39"/>
+        <v>Win</v>
+      </c>
+      <c r="N90" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>46050</v>
+      </c>
+      <c r="B91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91">
+        <v>220.05</v>
+      </c>
+      <c r="D91">
+        <f>VLOOKUP(B91,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>5.05</v>
+      </c>
+      <c r="E91">
+        <v>217.01</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="40"/>
+        <v>212.47500000000002</v>
+      </c>
+      <c r="G91" t="s">
+        <v>113</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="35"/>
+        <v>-1.3815042035901024</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="36"/>
+        <v>3.4423994546693879</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="37"/>
+        <v>-1.3815042035901024</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="38"/>
+        <v>-0.40132013201320466</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="39"/>
+        <v>Loss</v>
+      </c>
+      <c r="N91" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>46051</v>
+      </c>
+      <c r="B92" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92">
+        <v>462.07</v>
+      </c>
+      <c r="D92">
+        <f>VLOOKUP(B92,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>15.64</v>
+      </c>
+      <c r="E92">
+        <v>439.59</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="40"/>
+        <v>438.61</v>
+      </c>
+      <c r="G92" t="s">
+        <v>118</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="35"/>
+        <v>-4.8650637349319412</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="36"/>
+        <v>5.0771528123444458</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="37"/>
+        <v>-4.8650637349319412</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="38"/>
+        <v>-0.9582267689684586</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="39"/>
+        <v>Loss</v>
+      </c>
+      <c r="N92" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>46051</v>
+      </c>
+      <c r="B93" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93">
+        <v>190.33</v>
+      </c>
+      <c r="D93">
+        <f>VLOOKUP(B93,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E93">
+        <v>189.01</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="40"/>
+        <v>182.66500000000002</v>
+      </c>
+      <c r="G93" t="s">
+        <v>118</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ref="I93:I96" si="41">(E93-C93)/C93*(100)</f>
+        <v>-0.69353228602953898</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ref="J93:J96" si="42">(C93-F93)/C93*100</f>
+        <v>4.0272158881941849</v>
+      </c>
+      <c r="K93">
+        <f t="shared" ref="K93:K96" si="43">(E93-C93)/C93*100</f>
+        <v>-0.69353228602953898</v>
+      </c>
+      <c r="L93">
+        <f t="shared" ref="L93:L96" si="44">K93/J93</f>
+        <v>-0.17221135029354506</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" ref="M93:M96" si="45">IF(I93&gt;0,"Win","Loss")</f>
+        <v>Loss</v>
+      </c>
+      <c r="N93" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>46051</v>
+      </c>
+      <c r="B94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C94">
+        <v>332.81</v>
+      </c>
+      <c r="D94">
+        <f>VLOOKUP(B94,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>12.93</v>
+      </c>
+      <c r="E94">
+        <v>324.79000000000002</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="40"/>
+        <v>313.41500000000002</v>
+      </c>
+      <c r="G94" t="s">
+        <v>118</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="41"/>
+        <v>-2.4097833598749983</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="42"/>
+        <v>5.8276494095730245</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="43"/>
+        <v>-2.4097833598749983</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="44"/>
+        <v>-0.41350863624645467</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="45"/>
+        <v>Loss</v>
+      </c>
+      <c r="N94" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>46051</v>
+      </c>
+      <c r="B95" t="s">
+        <v>225</v>
+      </c>
+      <c r="C95">
+        <v>59.2</v>
+      </c>
+      <c r="D95">
+        <f>VLOOKUP(B95,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>2.71</v>
+      </c>
+      <c r="E95">
+        <v>55.04</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="40"/>
+        <v>55.135000000000005</v>
+      </c>
+      <c r="G95" t="s">
+        <v>176</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="41"/>
+        <v>-7.0270270270270334</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="42"/>
+        <v>6.8665540540540499</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="43"/>
+        <v>-7.0270270270270334</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="44"/>
+        <v>-1.0233702337023385</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="45"/>
+        <v>Loss</v>
+      </c>
+      <c r="N95" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>46052</v>
+      </c>
+      <c r="B96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96">
+        <v>20.13</v>
+      </c>
+      <c r="D96">
+        <f>VLOOKUP(B96,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="E96">
+        <v>23.4</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="40"/>
+        <v>19.454999999999998</v>
+      </c>
+      <c r="G96" t="s">
+        <v>244</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="41"/>
+        <v>16.24441132637854</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="42"/>
+        <v>3.3532041728763078</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="43"/>
+        <v>16.24441132637854</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="44"/>
+        <v>4.8444444444444388</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="45"/>
+        <v>Win</v>
+      </c>
+      <c r="N96" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E23:E36">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E23:E96">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F$2=$A23</formula>
     </cfRule>

--- a/entrys and stops.xlsx
+++ b/entrys and stops.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alonso\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alonso\Documents\GitHub\Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E5E191-DA7D-4BA8-8215-F8808C83D7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFD380E-5CA9-4839-9B42-542F58B99725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{700066B9-5A74-44E1-ACE9-D49B5F1E5EBB}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="250">
   <si>
     <t>Price</t>
   </si>
@@ -781,10 +781,16 @@
     <t>Perfect entry. Stopped out because is losing momentum.</t>
   </si>
   <si>
-    <t>ihs</t>
-  </si>
-  <si>
     <t>IHS</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>Partial trim to lock profits, its breaking out today, need confirmation tomorrow, stop trailed.</t>
+  </si>
+  <si>
+    <t>nvda</t>
   </si>
 </sst>
 </file>
@@ -1197,13 +1203,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05406170-A489-4C8C-B698-A8974D996514}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="13" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="13" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
@@ -1296,7 +1302,7 @@
       </c>
       <c r="H4">
         <f>VLOOKUP($F$2,$A$3:$D$1000,2,FALSE)</f>
-        <v>7.96</v>
+        <v>191.76</v>
       </c>
       <c r="I4" t="s">
         <v>28</v>
@@ -1321,7 +1327,7 @@
       </c>
       <c r="H5">
         <f>VLOOKUP($F$2,$A$3:$D$1000,4,FALSE)</f>
-        <v>7.6899999999999995</v>
+        <v>184.095</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -1389,7 +1395,7 @@
       </c>
       <c r="H8">
         <f>H4-H5</f>
-        <v>0.27000000000000046</v>
+        <v>7.664999999999992</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -1414,7 +1420,7 @@
       </c>
       <c r="H9">
         <f>H7/H8</f>
-        <v>174.07407407407376</v>
+        <v>6.1317677756033984</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
@@ -1439,7 +1445,7 @@
       </c>
       <c r="H10">
         <f>H6/H4</f>
-        <v>515.0753768844221</v>
+        <v>21.380892782644974</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
@@ -1464,7 +1470,7 @@
       </c>
       <c r="H11">
         <f>MIN(H9,H10)</f>
-        <v>174.07407407407376</v>
+        <v>6.1317677756033984</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
@@ -1915,14 +1921,14 @@
         <v>68</v>
       </c>
       <c r="B40">
-        <v>191.56</v>
+        <v>191.76</v>
       </c>
       <c r="C40">
         <v>5.1100000000000003</v>
       </c>
       <c r="D40">
         <f>B40-(1.5*C40)</f>
-        <v>183.89500000000001</v>
+        <v>184.095</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,14 +2866,14 @@
         <v>232</v>
       </c>
       <c r="B103">
-        <v>334.38</v>
+        <v>333.81</v>
       </c>
       <c r="C103">
         <v>12.93</v>
       </c>
       <c r="D103">
         <f>B103-(1*C103)</f>
-        <v>321.45</v>
+        <v>320.88</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2887,7 +2893,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B105">
         <v>7.96</v>
@@ -2913,6 +2919,21 @@
       <c r="D106">
         <f>B106-(1*C106)</f>
         <v>531.01</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>247</v>
+      </c>
+      <c r="B107">
+        <v>54.07</v>
+      </c>
+      <c r="C107">
+        <v>1.02</v>
+      </c>
+      <c r="D107">
+        <f>B107-(1.5*C107)</f>
+        <v>52.54</v>
       </c>
     </row>
   </sheetData>
@@ -3152,13 +3173,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2A77BB-0F93-4C87-9B0A-B8954405005E}">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="9" topLeftCell="N79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="9" topLeftCell="N82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N96" sqref="N96"/>
+      <selection pane="bottomRight" activeCell="N98" sqref="N98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3176,7 +3197,7 @@
       </c>
       <c r="B1" s="3">
         <f>COUNTIF(M:M,"Win")/COUNTA(M:M)</f>
-        <v>0.5</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="C1" t="s">
         <v>92</v>
@@ -3188,7 +3209,7 @@
       </c>
       <c r="B2">
         <f>AVERAGEIF(M:M,"Win",I:I)</f>
-        <v>10.071154772425853</v>
+        <v>10.059257090741108</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3206,7 +3227,7 @@
       </c>
       <c r="B4">
         <f>AVERAGE(L:L)</f>
-        <v>0.43817709654998532</v>
+        <v>0.45452216601960527</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -3215,7 +3236,7 @@
       </c>
       <c r="B5">
         <f>(B1*B2+(1-B1)*B3)</f>
-        <v>2.7752542407653316</v>
+        <v>2.8512149694827138</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -7079,7 +7100,7 @@
         <v>327.12</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F96" si="40">C89-(1.5*D89)</f>
+        <f t="shared" ref="F89:F97" si="40">C89-(1.5*D89)</f>
         <v>314.98500000000001</v>
       </c>
       <c r="G89" t="s">
@@ -7278,23 +7299,23 @@
         <v>118</v>
       </c>
       <c r="I93">
-        <f t="shared" ref="I93:I96" si="41">(E93-C93)/C93*(100)</f>
+        <f t="shared" ref="I93:I97" si="41">(E93-C93)/C93*(100)</f>
         <v>-0.69353228602953898</v>
       </c>
       <c r="J93">
-        <f t="shared" ref="J93:J96" si="42">(C93-F93)/C93*100</f>
+        <f t="shared" ref="J93:J97" si="42">(C93-F93)/C93*100</f>
         <v>4.0272158881941849</v>
       </c>
       <c r="K93">
-        <f t="shared" ref="K93:K96" si="43">(E93-C93)/C93*100</f>
+        <f t="shared" ref="K93:K97" si="43">(E93-C93)/C93*100</f>
         <v>-0.69353228602953898</v>
       </c>
       <c r="L93">
-        <f t="shared" ref="L93:L96" si="44">K93/J93</f>
+        <f t="shared" ref="L93:L97" si="44">K93/J93</f>
         <v>-0.17221135029354506</v>
       </c>
       <c r="M93" t="str">
-        <f t="shared" ref="M93:M96" si="45">IF(I93&gt;0,"Win","Loss")</f>
+        <f t="shared" ref="M93:M97" si="45">IF(I93&gt;0,"Win","Loss")</f>
         <v>Loss</v>
       </c>
       <c r="N93" t="s">
@@ -7445,9 +7466,57 @@
         <v>245</v>
       </c>
     </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>46055</v>
+      </c>
+      <c r="B97" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97">
+        <v>7.97</v>
+      </c>
+      <c r="D97">
+        <f>VLOOKUP(B97,'Stop Loss Calculator'!$A$3:$D$999,3,FALSE)</f>
+        <v>0.27</v>
+      </c>
+      <c r="E97">
+        <v>8.73</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="40"/>
+        <v>7.5649999999999995</v>
+      </c>
+      <c r="G97" t="s">
+        <v>113</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="41"/>
+        <v>9.5357590966123045</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="42"/>
+        <v>5.081555834378924</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="43"/>
+        <v>9.5357590966123045</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="44"/>
+        <v>1.8765432098765438</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="45"/>
+        <v>Win</v>
+      </c>
+      <c r="N97" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E23:E96">
+  <conditionalFormatting sqref="E23:E97">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F$2=$A23</formula>
     </cfRule>
